--- a/data/trans_camb/P6901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>39,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,04; 8,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,72; 11,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,12; -0,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,59; 71,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,36; 59,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 75,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,36; 19,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,13; 16,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,91; 15,61</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,61%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,19; 9,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,16; 12,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,33; -0,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,34; 531,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,57; 419,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; 514,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,52; 33,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,55; 25,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,76; 24,89</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 17,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; 15,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,59; 21,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 19,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,35; 16,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,54; 7,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; 14,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 13,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 13,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 25,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,08; 23,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 32,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 26,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,96; 20,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,4; 9,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,25; 20,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,25; 18,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; 17,78</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 17,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 14,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,43; 12,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; 18,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 29,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 17,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 15,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 17,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 11,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 27,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 22,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,91; 19,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,39; 27,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 46,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,74; 26,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 22,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 25,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 17,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 9,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; 14,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,6; 5,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; 13,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,24; 7,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,39; 4,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 11,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; 6,82</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; 12,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; 21,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,46; 15,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,34; 5,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,9; 17,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; 8,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,3; 5,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 14,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,44; 8,83</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,1; 8,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,7; 4,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; 7,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; 14,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; 19,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 9,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 7,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 7,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,79; 4,86</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,94%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; 12,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 6,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; 10,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,94; 21,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 29,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 13,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; 11,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,53; 10,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,94; 6,79</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; 5,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 6,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 4,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 8,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 14,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 5,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 4,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 7,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 3,31</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 7,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 8,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 5,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 10,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 20,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 7,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 9,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 4,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-19,31</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,94</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-36,14</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,5</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,88</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 8,83</t>
+          <t>-16,59; 11,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-60,72; 11,39</t>
+          <t>-19,38; 9,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-70,12; -0,22</t>
+          <t>-14,09; 14,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 71,93</t>
+          <t>-10,1; 25,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 59,83</t>
+          <t>-13,06; 23,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 75,27</t>
+          <t>-15,26; 17,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 19,14</t>
+          <t>-11,32; 11,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 16,76</t>
+          <t>-13,47; 10,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 15,61</t>
+          <t>-10,08; 10,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,83%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 9,95</t>
+          <t>-20,14; 16,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 12,56</t>
+          <t>-24,33; 13,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,33; -0,81</t>
+          <t>-16,6; 20,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 531,19</t>
+          <t>-10,44; 39,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 419,32</t>
+          <t>-14,92; 33,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 514,77</t>
+          <t>-16,35; 25,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 33,01</t>
+          <t>-13,41; 17,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 25,76</t>
+          <t>-16,77; 14,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 24,89</t>
+          <t>-11,99; 14,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 17,26</t>
+          <t>-6,32; 17,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 15,81</t>
+          <t>-9,93; 14,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 21,48</t>
+          <t>-11,16; 12,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 19,75</t>
+          <t>-12,18; 18,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 16,03</t>
+          <t>0,9; 29,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 7,81</t>
+          <t>-9,09; 17,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 14,77</t>
+          <t>-4,14; 15,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 13,42</t>
+          <t>-2,24; 17,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 13,1</t>
+          <t>-5,2; 12,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,84%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 25,89</t>
+          <t>-8,44; 27,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 23,07</t>
+          <t>-13,14; 22,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 32,99</t>
+          <t>-14,17; 19,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 26,13</t>
+          <t>-14,39; 27,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 20,41</t>
+          <t>1,4; 46,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 9,29</t>
+          <t>-10,58; 27,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 20,86</t>
+          <t>-5,68; 22,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 18,39</t>
+          <t>-2,85; 25,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 17,78</t>
+          <t>-6,71; 17,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 17,34</t>
+          <t>-18,54; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 14,72</t>
+          <t>-8,04; 14,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 12,9</t>
+          <t>-17,83; 10,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 18,71</t>
+          <t>-26,6; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 29,92</t>
+          <t>-12,76; 13,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 17,59</t>
+          <t>-18,46; 17,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 15,28</t>
+          <t>-17,39; 4,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 17,22</t>
+          <t>-6,11; 11,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 11,93</t>
+          <t>-12,61; 13,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-0,64%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 27,29</t>
+          <t>-22,84; 12,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 22,07</t>
+          <t>-9,54; 21,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 19,68</t>
+          <t>-22,19; 14,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 27,01</t>
+          <t>-30,34; 5,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 46,95</t>
+          <t>-13,9; 17,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 26,86</t>
+          <t>-20,41; 24,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 22,89</t>
+          <t>-21,3; 5,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 25,75</t>
+          <t>-7,29; 14,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 17,52</t>
+          <t>-15,16; 17,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,4</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 9,16</t>
+          <t>-15,1; 8,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 14,71</t>
+          <t>-20,7; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 11,17</t>
+          <t>-18,5; 6,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 5,04</t>
+          <t>-14,42; 14,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 13,32</t>
+          <t>-9,45; 19,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 7,07</t>
+          <t>-17,32; 10,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 4,01</t>
+          <t>-10,66; 7,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 11,15</t>
+          <t>-10,4; 7,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 6,82</t>
+          <t>-13,26; 4,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>-9,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,06%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-5,87%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 12,81</t>
+          <t>-19,18; 12,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 21,03</t>
+          <t>-26,11; 6,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 15,48</t>
+          <t>-22,93; 9,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 5,44</t>
+          <t>-18,94; 21,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 17,15</t>
+          <t>-11,78; 29,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 8,77</t>
+          <t>-21,68; 15,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 5,1</t>
+          <t>-13,4; 11,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 14,72</t>
+          <t>-13,53; 10,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 8,83</t>
+          <t>-16,76; 6,64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 8,82</t>
+          <t>-7,46; 5,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 4,52</t>
+          <t>-6,98; 6,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 7,24</t>
+          <t>-8,87; 3,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 14,84</t>
+          <t>-8,41; 8,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 19,54</t>
+          <t>-1,15; 14,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 9,54</t>
+          <t>-7,78; 8,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 7,77</t>
+          <t>-5,67; 4,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,57</t>
+          <t>-2,77; 7,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 4,86</t>
+          <t>-5,51; 4,4</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 12,14</t>
+          <t>-9,69; 7,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 6,35</t>
+          <t>-8,9; 8,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 10,14</t>
+          <t>-11,54; 5,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 21,99</t>
+          <t>-10,44; 10,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 29,11</t>
+          <t>-1,39; 20,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 13,44</t>
+          <t>-9,64; 11,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 11,17</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 10,71</t>
+          <t>-3,54; 9,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 6,79</t>
+          <t>-6,95; 5,96</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 5,7</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 6,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 4,02</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; 8,11</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 14,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 5,8</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 4,38</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 7,33</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 3,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,03%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,71%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-1,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 7,73</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 8,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 5,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 10,94</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 20,0</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-11,26; 7,77</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 5,96</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 9,96</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; 4,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 11,06</t>
+          <t>-18,58; 8,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 9,73</t>
+          <t>-19,75; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 14,42</t>
+          <t>-15,19; 13,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 25,71</t>
+          <t>-9,71; 25,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 23,29</t>
+          <t>-14,94; 23,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 17,35</t>
+          <t>-14,79; 17,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 11,98</t>
+          <t>-11,61; 11,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 10,23</t>
+          <t>-13,65; 10,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 10,67</t>
+          <t>-9,95; 10,19</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 16,25</t>
+          <t>-21,89; 12,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 13,58</t>
+          <t>-24,52; 15,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 20,54</t>
+          <t>-18,15; 18,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 39,79</t>
+          <t>-10,2; 41,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 33,71</t>
+          <t>-16,73; 35,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 25,58</t>
+          <t>-16,6; 26,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 17,03</t>
+          <t>-13,94; 15,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 14,02</t>
+          <t>-16,59; 13,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 14,97</t>
+          <t>-12,01; 13,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 17,34</t>
+          <t>-7,69; 16,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 14,72</t>
+          <t>-8,51; 14,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 12,55</t>
+          <t>-11,63; 11,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 18,71</t>
+          <t>-13,05; 19,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 29,92</t>
+          <t>-0,76; 29,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 17,63</t>
+          <t>-9,13; 16,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 15,28</t>
+          <t>-5,14; 13,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 17,22</t>
+          <t>-1,47; 17,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 12,03</t>
+          <t>-5,51; 10,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 27,29</t>
+          <t>-10,37; 24,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 22,07</t>
+          <t>-11,3; 22,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 19,25</t>
+          <t>-15,47; 18,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 27,01</t>
+          <t>-15,33; 29,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 46,95</t>
+          <t>-0,52; 45,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 27,21</t>
+          <t>-10,66; 26,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 22,89</t>
+          <t>-6,64; 20,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 25,75</t>
+          <t>-1,96; 25,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 17,65</t>
+          <t>-7,22; 15,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 9,16</t>
+          <t>-18,18; 8,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 14,71</t>
+          <t>-8,31; 14,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 10,51</t>
+          <t>-17,42; 11,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 5,04</t>
+          <t>-26,51; 3,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 13,32</t>
+          <t>-11,73; 14,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 17,2</t>
+          <t>-18,57; 16,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 4,01</t>
+          <t>-16,56; 3,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 11,15</t>
+          <t>-6,19; 11,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 13,1</t>
+          <t>-11,3; 13,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 12,81</t>
+          <t>-23,06; 11,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 21,03</t>
+          <t>-9,99; 20,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 14,75</t>
+          <t>-21,78; 16,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 5,44</t>
+          <t>-29,29; 5,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 17,15</t>
+          <t>-13,03; 18,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 24,98</t>
+          <t>-21,15; 21,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 5,1</t>
+          <t>-19,83; 4,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 14,72</t>
+          <t>-7,11; 15,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 17,67</t>
+          <t>-13,7; 18,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 8,82</t>
+          <t>-14,37; 9,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 4,52</t>
+          <t>-19,76; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 6,3</t>
+          <t>-18,48; 5,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 14,84</t>
+          <t>-15,35; 14,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 19,54</t>
+          <t>-8,7; 19,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 10,58</t>
+          <t>-16,06; 11,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 7,77</t>
+          <t>-10,93; 7,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,57</t>
+          <t>-11,17; 7,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 4,63</t>
+          <t>-13,0; 4,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 12,14</t>
+          <t>-17,93; 13,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 6,35</t>
+          <t>-25,19; 7,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 9,04</t>
+          <t>-23,45; 6,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 21,99</t>
+          <t>-19,35; 22,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 29,11</t>
+          <t>-10,97; 30,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 15,34</t>
+          <t>-20,03; 16,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 11,17</t>
+          <t>-13,8; 10,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 10,71</t>
+          <t>-14,26; 9,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 6,64</t>
+          <t>-16,46; 7,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,7</t>
+          <t>-6,96; 5,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,08</t>
+          <t>-6,95; 5,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,74</t>
+          <t>-8,8; 3,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>-8,01; 8,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>-0,85; 14,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 8,45</t>
+          <t>-7,97; 8,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,38</t>
+          <t>-5,31; 4,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,33</t>
+          <t>-2,36; 7,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,4</t>
+          <t>-5,92; 5,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 7,73</t>
+          <t>-8,98; 7,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,34</t>
+          <t>-8,87; 8,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,2</t>
+          <t>-11,29; 5,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,94</t>
+          <t>-9,75; 10,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 20,0</t>
+          <t>-0,58; 19,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 11,43</t>
+          <t>-9,85; 10,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,96</t>
+          <t>-6,7; 6,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,96</t>
+          <t>-3,08; 9,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,96</t>
+          <t>-7,5; 7,37</t>
         </is>
       </c>
     </row>
